--- a/streams.xlsx
+++ b/streams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Coincidences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB6FD82-C4C6-4849-B1EB-9163447ABFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{626EBA8D-AC47-421B-9967-8F9FD80EFC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2950" yWindow="360" windowWidth="20650" windowHeight="13120"/>
   </bookViews>
@@ -1930,10 +1930,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2224,322 +2224,16 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$I$12:$I$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$I$12:$I$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0.27058700000000002</c:v>
                 </c:pt>
@@ -2830,312 +2524,6 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.50098399999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.50101700000000005</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.50090699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.50101499999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.50087899999999996</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.50089499999999998</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.50085400000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.50090999999999997</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.50093500000000002</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.50083599999999995</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.50114499999999995</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.50084099999999998</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.50057499999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.50106200000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.500749</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.50063899999999995</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.50104499999999996</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.50077199999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.50067099999999998</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.50078199999999995</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.50076799999999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.50042299999999995</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.50076600000000004</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.50087599999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.50077300000000002</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.50084399999999996</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.50075099999999995</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.50074799999999997</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.50070300000000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.50069300000000005</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.50117400000000001</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.50054200000000004</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.500892</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.50026499999999996</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.500919</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.50089300000000003</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.50052300000000005</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.50088200000000005</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.500749</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.50059699999999996</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.500857</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.50087000000000004</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.50038199999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.50070199999999998</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.500579</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.50057300000000005</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.50093799999999999</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.50076600000000004</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.500552</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.50079499999999999</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.50018499999999999</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.50068299999999999</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.50094700000000003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.50075199999999997</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.50055499999999997</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.50073199999999995</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.50071699999999997</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.50068699999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.49985600000000002</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.50109700000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.50116400000000005</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.50042200000000003</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.50066100000000002</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.500363</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.50068900000000005</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.50084899999999999</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.50087099999999996</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.50042500000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.501031</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.50083200000000005</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.50012199999999996</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.50048199999999998</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.50014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.50046199999999996</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.50073199999999995</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.50045499999999998</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.50056199999999995</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.50052600000000003</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.50064299999999995</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.50058000000000002</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.50050300000000003</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.50060899999999997</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.50041400000000003</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.50039900000000004</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.50048300000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.50076100000000001</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.50058000000000002</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.50066200000000005</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.50053099999999995</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.50051500000000004</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.50063999999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.50029800000000002</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.50041800000000003</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.50074600000000002</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.50057200000000002</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.50046400000000002</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.50034000000000001</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.50059500000000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.50047600000000003</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.50060700000000002</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.50049100000000002</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.50032900000000002</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.50049500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,10 +2563,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3469,322 +2857,16 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$J$12:$J$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$J$12:$J$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0.36180899999999999</c:v>
                 </c:pt>
@@ -4075,312 +3157,6 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>8.2483000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.13261200000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7.7579999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.6714000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.6216000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.5551999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.4580999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.4069999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.3506000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.2866E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.1957999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.1596999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7.0999000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.9995000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>6.9684999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.9222000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.7766000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.7614999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6.6738000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.5957000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.5568000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.5481999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.4328999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.3521999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.275E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.2190000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.1769999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.1129000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.0004000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.9492999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5.7992000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.8152000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.7257000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.7480999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.5773999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.5647000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5.4884000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>5.3994E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5.3760000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5.3109999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5.1950000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>5.0858E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>5.0796000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>5.0097999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4.9522999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.8739999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>4.7537000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4.7916E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4.6822999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4.6335000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.6207999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4.4902999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4.4019000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>4.3515999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>4.2439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4.2327999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>4.1270000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4.0704999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4.1008999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3.8927000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3.8127000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3.8199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3.7456999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3.7644999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3.6443999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3.4745999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3.4410000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3.3978000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3.3019E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3.2402E-2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3.2592000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3.1244999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3.1518999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3.0595000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2.9610000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2.8822E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2.8393999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2.7740999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2.6468999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2.6040000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2.5596000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2.4777E-2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2.4329E-2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2.3331999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2.2880999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2.1864999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2.1663999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2.0774999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1.9932999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1.9262000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.8758E-2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1.8363000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1.7447000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.669E-2</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1.6348000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1.5280999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1.5007E-2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.3832000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1.3459E-2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.2880000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2.0324999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1.2076999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.1932E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4420,10 +3196,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4714,322 +3490,16 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$K$12:$K$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$K$12:$K$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0.36432100000000001</c:v>
                 </c:pt>
@@ -5320,312 +3790,6 @@
                 </c:pt>
                 <c:pt idx="96" formatCode="0.00E+00">
                   <c:v>2.3599999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>2.6800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>2.7E-4</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00E+00">
-                  <c:v>2.3800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00E+00">
-                  <c:v>2.4000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00E+00">
-                  <c:v>1.8599999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00E+00">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00E+00">
-                  <c:v>2.31E-4</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00E+00">
-                  <c:v>2.2800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00E+00">
-                  <c:v>2.3599999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00E+00">
-                  <c:v>1.6799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00E+00">
-                  <c:v>1.26E-4</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00E+00">
-                  <c:v>1.6000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00E+00">
-                  <c:v>1.45E-4</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00E+00">
-                  <c:v>9.5000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00E+00">
-                  <c:v>1.2400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00E+00">
-                  <c:v>1.37E-4</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00E+00">
-                  <c:v>7.4999999999999993E-5</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00E+00">
-                  <c:v>8.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00E+00">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00E+00">
-                  <c:v>3.4999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00E+00">
-                  <c:v>6.6000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00E+00">
-                  <c:v>7.2000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00E+00">
-                  <c:v>5.5000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00E+00">
-                  <c:v>3.1000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00E+00">
-                  <c:v>3.1000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00E+00">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00E+00">
-                  <c:v>3.1000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00E+00">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00E+00">
-                  <c:v>3.8000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00E+00">
-                  <c:v>3.8000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00E+00">
-                  <c:v>3.1999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00E+00">
-                  <c:v>3.8999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00E+00">
-                  <c:v>1.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00E+00">
-                  <c:v>4.0000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00E+00">
-                  <c:v>1.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00E+00">
-                  <c:v>2.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00E+00">
-                  <c:v>1.4E-5</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00E+00">
-                  <c:v>3.4E-5</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00E+00">
-                  <c:v>2.0999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="0.00E+00">
-                  <c:v>2.8E-5</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="0.00E+00">
-                  <c:v>1.4E-5</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="0.00E+00">
-                  <c:v>1.4E-5</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="0.00E+00">
-                  <c:v>1.4E-5</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="0.00E+00">
-                  <c:v>7.9999999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="0.00E+00">
-                  <c:v>1.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="0.00E+00">
-                  <c:v>7.9999999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="0.00E+00">
-                  <c:v>7.9999999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,10 +3829,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5959,322 +4123,16 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$L$12:$L$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$L$12:$L$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>3.284E-3</c:v>
                 </c:pt>
@@ -6565,312 +4423,6 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.41629699999999997</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.36610300000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.42124200000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.42203400000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.42266500000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.42336699999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.42431400000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.424788</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.42533199999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.426062</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.42673</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.42743700000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.42826599999999998</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.42879800000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.42947099999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.43001400000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.43105100000000002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.43153799999999998</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.432504</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.43316199999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.43362899999999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.43403000000000003</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.43483300000000003</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.43554799999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.43644699999999997</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.43693599999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.43742900000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.43809199999999998</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.43923600000000002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.439776</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.44079600000000002</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.44127300000000003</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.44181199999999998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.44224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.44326700000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.44344699999999998</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.444573</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.44511000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.44545699999999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.44627299999999998</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.44716499999999998</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.44825700000000002</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.44881500000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.44919300000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.44988299999999998</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.45068000000000003</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.451511</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.45130999999999999</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.452625</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.45286999999999999</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.45360699999999998</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.45441500000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.45503500000000002</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.45573200000000003</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.45700400000000002</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.45694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.45800600000000002</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.45860899999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.45911999999999997</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.45997500000000002</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.46070100000000003</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.46137800000000001</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.46188200000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.46198400000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.46286699999999997</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.46440500000000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.46471899999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.46559699999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.465949</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.46676600000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.46728599999999998</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.46827299999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.468337</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.468943</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.46965800000000002</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.470723</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.47104400000000002</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.47173399999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.472887</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.47337899999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.47390100000000002</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.47461300000000001</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.47525600000000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.47627000000000003</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.476636</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.47737400000000002</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.47775600000000001</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.47856199999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.47953699999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.48022300000000001</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.48060199999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.48133900000000002</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.48213400000000001</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.48256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.48308000000000001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.48425600000000002</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.48465399999999997</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.485572</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.486066</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.486514</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.47918500000000003</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.48759400000000003</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.48757299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6910,10 +4462,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$A$12:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7204,322 +4756,16 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stream_u1_e0.1_n10000000_double!$M$12:$M$210</c:f>
+              <c:f>stream_u1_e0.1_n10000000_double!$M$12:$M$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>-0.45882699999999998</c:v>
                 </c:pt>
@@ -7810,312 +5056,6 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>1.9689999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.0339999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.8129999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.029E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.7570000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.7899999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.709E-3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.82E-3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.869E-3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.6720000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.2889999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.681E-3</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.1509999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.1250000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.4970000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.279E-3</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.091E-3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.5430000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.3420000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.5640000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.536E-3</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00E+00">
-                  <c:v>8.4599999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.5319999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.7520000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.5460000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.688E-3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.503E-3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.4959999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.407E-3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.3860000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.3479999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.085E-3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.784E-3</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00E+00">
-                  <c:v>5.31E-4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.838E-3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.7849999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.0460000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.7650000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.498E-3</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.193E-3</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1.714E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1.7409999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00E+00">
-                  <c:v>7.6400000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.405E-3</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.1590000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1.145E-3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1.8760000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1.5319999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.1039999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.5900000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="0.00E+00">
-                  <c:v>3.6999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.3649999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1.8940000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.505E-3</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.111E-3</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.4630000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.4339999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1.374E-3</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="0.00E+00">
-                  <c:v>-2.8899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2.1949999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2.3280000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="0.00E+00">
-                  <c:v>8.43E-4</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1.322E-3</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="0.00E+00">
-                  <c:v>7.2499999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1.379E-3</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.6980000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1.7409999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="0.00E+00">
-                  <c:v>8.4999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2.0630000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1.6639999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="0.00E+00">
-                  <c:v>2.4399999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="0.00E+00">
-                  <c:v>9.6400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="0.00E+00">
-                  <c:v>2.8899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="0.00E+00">
-                  <c:v>9.2400000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.464E-3</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="0.00E+00">
-                  <c:v>9.0899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.124E-3</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.0510000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.286E-3</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.1609999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.0070000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1.219E-3</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="0.00E+00">
-                  <c:v>8.2899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="0.00E+00">
-                  <c:v>7.9699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="0.00E+00">
-                  <c:v>9.6599999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.521E-3</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1.1609999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1.325E-3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1.0610000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1.0300000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.2800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="0.00E+00">
-                  <c:v>5.9599999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="0.00E+00">
-                  <c:v>8.3699999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.4920000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1.1440000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="0.00E+00">
-                  <c:v>9.2699999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="0.00E+00">
-                  <c:v>6.7900000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.191E-3</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="0.00E+00">
-                  <c:v>9.5200000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.2130000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="0.00E+00">
-                  <c:v>9.810000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="0.00E+00">
-                  <c:v>6.5700000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="0.00E+00">
-                  <c:v>9.9099999999999991E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8142,7 +5082,7 @@
         <c:axId val="608785232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11544,8 +8484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:F95"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Coincidences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{626EBA8D-AC47-421B-9967-8F9FD80EFC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{984F8BB5-9012-4DB8-AFFE-65378137A20E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="360" windowWidth="20650" windowHeight="13120"/>
+    <workbookView xWindow="2030" yWindow="290" windowWidth="20650" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="stream_u1_e0.1_n10000000_double" sheetId="1" r:id="rId1"/>
@@ -671,6 +671,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> J/counts as a function of window size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1896,6 +1921,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Counts</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> as function of window size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5301,6 +5386,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> J/counts as a function of window size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8147,15 +8257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:colOff>416983</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:colOff>112183</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>91017</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8484,8 +8594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
